--- a/abc.xlsx
+++ b/abc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>target</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>thoat</t>
+  </si>
+  <si>
+    <t>nguyentuananh2019</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>target</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>thoat</t>
-  </si>
-  <si>
-    <t>nguyentuananh2019</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>target</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>thoat</t>
+  </si>
+  <si>
+    <t>nguyentuananh2019</t>
   </si>
 </sst>
 </file>
@@ -429,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
